--- a/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A0782-3813-438B-ACD5-283681353363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F483516-035C-473C-9CB3-DF0F518AC586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,6 +1547,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,14 +1567,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1977,11 +1977,11 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,46 +2055,46 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="42" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="39"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -2300,14 +2300,14 @@
         <v>21</v>
       </c>
       <c r="C17" s="14">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D17" s="13">
         <v>24</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="0"/>
-        <v>8.5416666666666661</v>
+        <v>9.5416666666666661</v>
       </c>
       <c r="F17" s="14">
         <v>10</v>
@@ -2324,7 +2324,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="6">
         <f t="shared" ref="K17:K21" si="2">C17/2</f>
-        <v>102.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2335,14 +2335,14 @@
         <v>22</v>
       </c>
       <c r="C18" s="17">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D18" s="18">
         <v>24</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="0"/>
-        <v>8.5416666666666661</v>
+        <v>9.5416666666666661</v>
       </c>
       <c r="F18" s="17">
         <v>10</v>
@@ -2359,7 +2359,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
-        <v>102.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2370,14 +2370,14 @@
         <v>23</v>
       </c>
       <c r="C19" s="14">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D19" s="13">
         <v>24</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="0"/>
-        <v>8.5416666666666661</v>
+        <v>9.5416666666666661</v>
       </c>
       <c r="F19" s="14">
         <v>10</v>
@@ -2394,7 +2394,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="6">
         <f t="shared" si="2"/>
-        <v>102.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2405,14 +2405,14 @@
         <v>2</v>
       </c>
       <c r="C20" s="14">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D20" s="13">
         <v>24</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="0"/>
-        <v>8.5416666666666661</v>
+        <v>9.5416666666666661</v>
       </c>
       <c r="F20" s="14">
         <v>10</v>
@@ -2429,7 +2429,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="6">
         <f t="shared" si="2"/>
-        <v>102.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2440,14 +2440,14 @@
         <v>9</v>
       </c>
       <c r="C21" s="14">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D21" s="13">
         <v>24</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="0"/>
-        <v>8.5416666666666661</v>
+        <v>9.5416666666666661</v>
       </c>
       <c r="F21" s="14">
         <v>10</v>
@@ -2464,7 +2464,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="6">
         <f t="shared" si="2"/>
-        <v>102.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2534,7 +2534,7 @@
       <c r="A25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="14">
@@ -2544,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" ref="E24:E34" si="5">C25/D25</f>
+        <f t="shared" ref="E25:E34" si="5">C25/D25</f>
         <v>65.916666666666671</v>
       </c>
       <c r="F25" s="14">
@@ -2581,7 +2581,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="7"/>
       <c r="K26" s="6">
-        <f t="shared" ref="K24:K26" si="6">C26/2</f>
+        <f t="shared" ref="K26" si="6">C26/2</f>
         <v>864</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="C29" s="23">
         <v>1582</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="37">
         <v>24</v>
       </c>
       <c r="E29" s="23">
@@ -2671,7 +2671,7 @@
         <f t="shared" ref="K29" si="8">C29/2</f>
         <v>791</v>
       </c>
-      <c r="L29" s="42"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
@@ -2744,7 +2744,7 @@
       <c r="C32" s="23">
         <v>1582</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="37">
         <v>24</v>
       </c>
       <c r="E32" s="23">
@@ -2806,7 +2806,7 @@
       <c r="C34" s="23">
         <v>710</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="37">
         <v>6</v>
       </c>
       <c r="E34" s="23">
@@ -3110,7 +3110,7 @@
       <c r="F43" s="17">
         <v>53</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="36" t="s">
         <v>4</v>
       </c>
       <c r="H43" s="8"/>

--- a/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F483516-035C-473C-9CB3-DF0F518AC586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D671518-4D17-49CE-B8A6-1145BCC2B24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1981,7 +1981,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,7 +3313,7 @@
         <v>84</v>
       </c>
       <c r="I49" s="32">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="J49" s="33"/>
       <c r="K49" s="32">
@@ -3618,7 +3618,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="72" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D671518-4D17-49CE-B8A6-1145BCC2B24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E4C52-0F0D-480B-9E63-BCE28A6FF109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,10 +1978,10 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E4C52-0F0D-480B-9E63-BCE28A6FF109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7565F2-CAF4-4CDE-B899-E266C5FA671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,9 +1314,6 @@
     </r>
   </si>
   <si>
-    <t>as of January 01, 2025</t>
-  </si>
-  <si>
     <r>
       <t>SAN MIG LIGHT 1000ml (</t>
     </r>
@@ -1341,6 +1338,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>as of January 01, 2026</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1981,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2801,7 +2801,7 @@
     <row r="34" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="23">
         <v>710</v>

--- a/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS JANUARY FILES 2026/PRICE LIST January.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7565F2-CAF4-4CDE-B899-E266C5FA671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1238A0-3E23-485B-840D-AE0E060DCB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
